--- a/biology/Botanique/Croton_scouleri/Croton_scouleri.xlsx
+++ b/biology/Botanique/Croton_scouleri/Croton_scouleri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Croton scouleri est une espèce de plantes à fleurs du genre Croton et de la famille des Euphorbiaceae, présente aux Îles Galápagos.
 Il a pour synonymes :
@@ -518,22 +530,129 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Croton scouleri var. brevifolius
-Croton scouleri var. brevifolius, (Andersson) Müll.Arg., 1866
+          <t>Croton scouleri var. brevifolius</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Croton scouleri var. brevifolius, (Andersson) Müll.Arg., 1866
 présent aux Îles Galápagos (île Santa María)
 Il a pour synonyme :
 Croton brevifolius, Andersson, 1855
-(en) Référence Catalogue of Life : Croton scouleri brevifolius (Andersson) Müll.Arg.
-Croton scouleri var. darwinii
-Croton scouleri var. darwinii, G.L.Webster, 1970
+(en) Référence Catalogue of Life : Croton scouleri brevifolius (Andersson) Müll.Arg.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Croton_scouleri</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Croton_scouleri</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Croton scouleri var. darwinii</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Croton scouleri var. darwinii, G.L.Webster, 1970
 présent aux Îles Galápagos (Darwin, Wolf)
-(en) Référence Catalogue of Life : Croton scouleri darwinii G.L.Webster
-Croton scouleri var. grandifolius
-Croton scouleri var. grandifolius, Müll.Arg., 1866
+(en) Référence Catalogue of Life : Croton scouleri darwinii G.L.Webster</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Croton_scouleri</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Croton_scouleri</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Croton scouleri var. grandifolius</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Croton scouleri var. grandifolius, Müll.Arg., 1866
 présent aux Îles Galápagos
-(en) Référence Catalogue of Life : Croton scouleri grandifolius Müll.Arg.
-Croton scouleri var. scouleri
-Croton scouleri var. scouleri,
+(en) Référence Catalogue of Life : Croton scouleri grandifolius Müll.Arg.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Croton_scouleri</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Croton_scouleri</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Croton scouleri var. scouleri</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Croton scouleri var. scouleri,
 présent aux Îles Galápagos
 Il a pour synonymes :
 Croton albescens, Andersson, 1855
